--- a/InputFiles/C3DC/TC06_C3DC_phs002518_DiagnClasfSystem-ICD-O-3.xlsx
+++ b/InputFiles/C3DC/TC06_C3DC_phs002518_DiagnClasfSystem-ICD-O-3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-11-27-2024/Commons_Automation/InputFiles/C3DC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/07-15-2025/Commons_Automation/InputFiles/C3DC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C50F701-FE8E-C84C-9ABE-E3F7196A4FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6777CBC2-D32C-7041-8EFF-D50CED3EF6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35840" yWindow="-2240" windowWidth="30240" windowHeight="24500" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -84,17 +84,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
    std.dbgap_accession = 'phs002518' AND dgn.diagnosis_classification_system = 'ICD-O-3.2';</t>
   </si>
@@ -105,17 +105,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND dgn.diagnosis_classification_system = 'ICD-O-3.2'</t>
   </si>
@@ -128,17 +128,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND dgn.diagnosis_classification_system = 'ICD-O-3.2'
 ORDER BY 
@@ -165,17 +165,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND dgn.diagnosis_classification_system = 'ICD-O-3.2' AND dgn.diagnosis_id IS NOT NULL
 ORDER BY 
@@ -206,17 +206,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND dgn.diagnosis_classification_system = 'ICD-O-3.2'
 ORDER BY 
@@ -241,17 +241,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND dgn.diagnosis_classification_system = 'ICD-O-3.2'
 ORDER BY 
@@ -276,17 +276,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002518' AND dgn.diagnosis_classification_system = 'ICD-O-3.2' AND srv.survival_id IS NOT NULL
 ORDER BY 
@@ -298,16 +298,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -360,14 +353,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -761,7 +751,7 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2"/>
@@ -792,7 +782,7 @@
       <c r="C9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
